--- a/resources/test_data/excel/dev_test_data.xlsx
+++ b/resources/test_data/excel/dev_test_data.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9302"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20505" windowHeight="7755" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20505" windowHeight="7755"/>
   </bookViews>
   <sheets>
     <sheet name="LoginData" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="12">
   <si>
     <t>Key</t>
   </si>
@@ -31,12 +31,6 @@
     <t>welcome1!</t>
   </si>
   <si>
-    <t>Username</t>
-  </si>
-  <si>
-    <t>osanda</t>
-  </si>
-  <si>
     <t>Password</t>
   </si>
   <si>
@@ -44,6 +38,24 @@
   </si>
   <si>
     <t>How to automate Android 6.0 date picker</t>
+  </si>
+  <si>
+    <t>Osanda Nimalarathna</t>
+  </si>
+  <si>
+    <t>profileName</t>
+  </si>
+  <si>
+    <t>osanda@mailinator.com</t>
+  </si>
+  <si>
+    <t>osandaPassword</t>
+  </si>
+  <si>
+    <t>1qaz2wsx@</t>
+  </si>
+  <si>
+    <t>osandaEmail</t>
   </si>
 </sst>
 </file>
@@ -149,7 +161,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
@@ -183,6 +195,7 @@
     <xf numFmtId="49" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
@@ -1405,8 +1418,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B7"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="A37" sqref="A37"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1425,23 +1438,27 @@
     </row>
     <row r="2" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
-        <v>3</v>
+        <v>11</v>
       </c>
-      <c r="B2" s="9" t="s">
-        <v>4</v>
+      <c r="B2" s="13" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="8" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
-      <c r="B3" s="10" t="s">
-        <v>2</v>
+      <c r="B3" s="6" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="11"/>
-      <c r="B4" s="11"/>
+      <c r="A4" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" s="11" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="5" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="12"/>
@@ -1456,8 +1473,12 @@
       <c r="B7" s="6"/>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B2" r:id="rId1"/>
+    <hyperlink ref="B3" r:id="rId2"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait"/>
+  <pageSetup orientation="portrait" r:id="rId3"/>
   <headerFooter>
     <oddFooter>&amp;C&amp;"Helvetica Neue,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
   </headerFooter>
@@ -1473,7 +1494,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B7"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+    <sheetView showGridLines="0" workbookViewId="0">
       <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
@@ -1493,15 +1514,15 @@
     </row>
     <row r="2" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="8" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B3" s="10" t="s">
         <v>2</v>

--- a/resources/test_data/excel/dev_test_data.xlsx
+++ b/resources/test_data/excel/dev_test_data.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9302"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20505" windowHeight="7755"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20505" windowHeight="7755" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="LoginData" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="10">
   <si>
     <t>Key</t>
   </si>
@@ -28,22 +28,7 @@
     <t>Value</t>
   </si>
   <si>
-    <t>welcome1!</t>
-  </si>
-  <si>
-    <t>Password</t>
-  </si>
-  <si>
-    <t>question</t>
-  </si>
-  <si>
-    <t>How to automate Android 6.0 date picker</t>
-  </si>
-  <si>
     <t>Osanda Nimalarathna</t>
-  </si>
-  <si>
-    <t>profileName</t>
   </si>
   <si>
     <t>osanda@mailinator.com</t>
@@ -56,6 +41,15 @@
   </si>
   <si>
     <t>osandaEmail</t>
+  </si>
+  <si>
+    <t>osandaProfileName</t>
+  </si>
+  <si>
+    <t>tShirtDress</t>
+  </si>
+  <si>
+    <t>Faded Short Sleeve T-shirts</t>
   </si>
 </sst>
 </file>
@@ -1418,8 +1412,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B7"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="I14" sqref="I14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1438,18 +1432,18 @@
     </row>
     <row r="2" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="B2" s="13" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="8" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -1457,7 +1451,7 @@
         <v>7</v>
       </c>
       <c r="B4" s="11" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -1494,8 +1488,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B7"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1514,19 +1508,15 @@
     </row>
     <row r="2" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="B3" s="10" t="s">
-        <v>2</v>
-      </c>
+      <c r="A3" s="8"/>
+      <c r="B3" s="10"/>
     </row>
     <row r="4" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="11"/>
